--- a/data/s07_Restaurant-Survey-Data.xlsx
+++ b/data/s07_Restaurant-Survey-Data.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbeny\Google Drive\Udemy\Data Sets\Section 7 - Likert Scale Chart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25920" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Likert_Scale_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="lookups" sheetId="2" r:id="rId2"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
     <sheet name="demographics" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="160">
   <si>
     <t>LocationLatitude</t>
   </si>
@@ -494,59 +494,20 @@
     <t>Frequent</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V6</t>
-  </si>
-  <si>
-    <t>V7</t>
-  </si>
-  <si>
-    <t>V8</t>
-  </si>
-  <si>
-    <t>V9</t>
-  </si>
-  <si>
-    <t>V10</t>
-  </si>
-  <si>
-    <t>Q1_1</t>
-  </si>
-  <si>
-    <t>Q1_2</t>
-  </si>
-  <si>
-    <t>Q1_3</t>
-  </si>
-  <si>
-    <t>Q1_4</t>
-  </si>
-  <si>
-    <t>Q1_5</t>
-  </si>
-  <si>
-    <t>Q1_6</t>
+    <t>QuestionID</t>
+  </si>
+  <si>
+    <t>QuestionText</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +638,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -979,7 +956,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1022,12 +999,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1056,11 +1040,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1127,7 +1115,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1179,7 +1167,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1373,7 +1361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1381,68 +1369,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S130"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" t="s">
-        <v>172</v>
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="O1">
+        <v>5</v>
+      </c>
+      <c r="P1">
+        <v>6</v>
       </c>
       <c r="Q1" t="s">
         <v>0</v>
@@ -1454,68 +1444,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>42954.555648148147</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42954.555648148147</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>24.852716300000001</v>
+      </c>
+      <c r="R2">
+        <v>-64.353305700000007</v>
+      </c>
+      <c r="S2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1536,16 +1517,16 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1563,9 +1544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1586,13 +1567,13 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1613,9 +1594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1636,16 +1617,16 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1663,9 +1644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1677,31 +1658,31 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>42954.555648148147</v>
+        <v>42954.555659722224</v>
       </c>
       <c r="I6" s="1">
-        <v>42954.555648148147</v>
+        <v>42954.555659722224</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <v>24.852716300000001</v>
@@ -1713,9 +1694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1736,22 +1717,22 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>24.852716300000001</v>
@@ -1763,9 +1744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1786,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -1813,9 +1794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1836,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>24.852716300000001</v>
@@ -1863,9 +1844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1886,22 +1867,22 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>24.852716300000001</v>
@@ -1913,9 +1894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1936,13 +1917,13 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1951,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>24.852716300000001</v>
@@ -1963,9 +1944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1989,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -2001,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>24.852716300000001</v>
@@ -2013,9 +1994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -2036,22 +2017,22 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>2</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q13">
         <v>24.852716300000001</v>
@@ -2063,9 +2044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -2086,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -2095,13 +2076,13 @@
         <v>2</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>4</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q14">
         <v>24.852716300000001</v>
@@ -2113,9 +2094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2142,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2151,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
         <v>24.852716300000001</v>
@@ -2163,9 +2144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -2186,16 +2167,16 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2213,9 +2194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -2227,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>42954.555659722224</v>
+        <v>42954.555671296293</v>
       </c>
       <c r="I17" s="1">
-        <v>42954.555659722224</v>
+        <v>42954.555671296293</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2239,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>2</v>
@@ -2263,9 +2244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -2289,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -2313,9 +2294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -2336,19 +2317,19 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>4</v>
@@ -2363,9 +2344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2386,19 +2367,19 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>2</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P20">
         <v>4</v>
@@ -2413,9 +2394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2436,16 +2417,16 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>4</v>
@@ -2463,9 +2444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2486,19 +2467,19 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>4</v>
@@ -2513,9 +2494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2536,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2548,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q23">
         <v>24.852716300000001</v>
@@ -2563,9 +2544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2589,19 +2570,19 @@
         <v>4</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O24">
         <v>4</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q24">
         <v>24.852716300000001</v>
@@ -2613,9 +2594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2639,19 +2620,19 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q25">
         <v>24.852716300000001</v>
@@ -2663,9 +2644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2686,22 +2667,22 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>4</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>24.852716300000001</v>
@@ -2713,9 +2694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2736,22 +2717,22 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q27">
         <v>24.852716300000001</v>
@@ -2763,9 +2744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2777,10 +2758,10 @@
         <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>42954.555671296293</v>
+        <v>42954.55568287037</v>
       </c>
       <c r="I28" s="1">
-        <v>42954.555671296293</v>
+        <v>42954.55568287037</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2789,13 +2770,13 @@
         <v>4</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>4</v>
@@ -2813,9 +2794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2836,22 +2817,22 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <v>4</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29">
         <v>24.852716300000001</v>
@@ -2863,9 +2844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2889,19 +2870,19 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <v>4</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30">
         <v>24.852716300000001</v>
@@ -2913,9 +2894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2939,16 +2920,16 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -2963,9 +2944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2986,19 +2967,19 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -3013,9 +2994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -3042,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -3063,9 +3044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -3086,19 +3067,19 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <v>4</v>
@@ -3113,9 +3094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -3136,22 +3117,22 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q35">
         <v>24.852716300000001</v>
@@ -3163,9 +3144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -3189,19 +3170,19 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O36">
         <v>4</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q36">
         <v>24.852716300000001</v>
@@ -3213,9 +3194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -3236,22 +3217,22 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q37">
         <v>24.852716300000001</v>
@@ -3263,9 +3244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -3286,13 +3267,13 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -3313,9 +3294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -3327,31 +3308,31 @@
         <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>42954.55568287037</v>
+        <v>42954.555694444447</v>
       </c>
       <c r="I39" s="1">
-        <v>42954.55568287037</v>
+        <v>42954.555694444447</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39">
         <v>4</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q39">
         <v>24.852716300000001</v>
@@ -3363,9 +3344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -3386,13 +3367,13 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3401,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q40">
         <v>24.852716300000001</v>
@@ -3413,9 +3394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -3436,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -3451,7 +3432,7 @@
         <v>4</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q41">
         <v>24.852716300000001</v>
@@ -3463,9 +3444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -3486,16 +3467,16 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42">
         <v>4</v>
@@ -3513,9 +3494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -3536,22 +3517,22 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q43">
         <v>24.852716300000001</v>
@@ -3563,9 +3544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -3586,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>24.852716300000001</v>
@@ -3613,9 +3594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -3636,22 +3617,22 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45">
         <v>4</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q45">
         <v>24.852716300000001</v>
@@ -3663,9 +3644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -3686,22 +3667,22 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>3</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q46">
         <v>24.852716300000001</v>
@@ -3713,9 +3694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -3736,22 +3717,22 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>24.852716300000001</v>
@@ -3763,9 +3744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -3786,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -3798,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>24.852716300000001</v>
@@ -3813,9 +3794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -3836,10 +3817,10 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3848,10 +3829,10 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>24.852716300000001</v>
@@ -3863,9 +3844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -3877,19 +3858,19 @@
         <v>2</v>
       </c>
       <c r="H50" s="1">
-        <v>42954.555694444447</v>
+        <v>42954.555706018517</v>
       </c>
       <c r="I50" s="1">
-        <v>42954.555694444447</v>
+        <v>42954.555706018517</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -3901,7 +3882,7 @@
         <v>4</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50">
         <v>24.852716300000001</v>
@@ -3913,9 +3894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -3942,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3963,9 +3944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -3986,13 +3967,13 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -4001,7 +3982,7 @@
         <v>4</v>
       </c>
       <c r="P52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>24.852716300000001</v>
@@ -4013,9 +3994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -4036,22 +4017,22 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53">
         <v>4</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q53">
         <v>24.852716300000001</v>
@@ -4063,9 +4044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -4086,22 +4067,22 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q54">
         <v>24.852716300000001</v>
@@ -4113,9 +4094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -4136,22 +4117,22 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>24.852716300000001</v>
@@ -4163,9 +4144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -4186,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56">
         <v>4</v>
@@ -4195,13 +4176,13 @@
         <v>2</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q56">
         <v>24.852716300000001</v>
@@ -4213,9 +4194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -4236,22 +4217,22 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
         <v>24.852716300000001</v>
@@ -4263,9 +4244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -4286,19 +4267,19 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>4</v>
@@ -4313,9 +4294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -4339,16 +4320,16 @@
         <v>4</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P59">
         <v>4</v>
@@ -4363,9 +4344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -4389,13 +4370,13 @@
         <v>4</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60">
         <v>4</v>
@@ -4413,9 +4394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -4436,19 +4417,19 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>4</v>
@@ -4463,9 +4444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -4477,10 +4458,10 @@
         <v>2</v>
       </c>
       <c r="H62" s="1">
-        <v>42954.555706018517</v>
+        <v>42954.555717592593</v>
       </c>
       <c r="I62" s="1">
-        <v>42954.555706018517</v>
+        <v>42954.555717592593</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -4489,16 +4470,16 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P62">
         <v>4</v>
@@ -4513,9 +4494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -4536,22 +4517,22 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q63">
         <v>24.852716300000001</v>
@@ -4563,9 +4544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -4589,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q64">
         <v>24.852716300000001</v>
@@ -4613,9 +4594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -4636,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L65">
         <v>3</v>
@@ -4663,9 +4644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -4686,22 +4667,22 @@
         <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q66">
         <v>24.852716300000001</v>
@@ -4713,9 +4694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -4736,22 +4717,22 @@
         <v>1</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>1</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <v>24.852716300000001</v>
@@ -4763,9 +4744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -4789,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4813,9 +4794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -4836,10 +4817,10 @@
         <v>1</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -4851,7 +4832,7 @@
         <v>4</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q69">
         <v>24.852716300000001</v>
@@ -4863,9 +4844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -4886,22 +4867,22 @@
         <v>1</v>
       </c>
       <c r="K70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>4</v>
       </c>
       <c r="P70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q70">
         <v>24.852716300000001</v>
@@ -4913,9 +4894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -4936,16 +4917,16 @@
         <v>1</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -4963,9 +4944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -4986,19 +4967,19 @@
         <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P72">
         <v>4</v>
@@ -5013,9 +4994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -5036,22 +5017,22 @@
         <v>1</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q73">
         <v>24.852716300000001</v>
@@ -5063,9 +5044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -5077,19 +5058,19 @@
         <v>2</v>
       </c>
       <c r="H74" s="1">
-        <v>42954.555717592593</v>
+        <v>42954.55572916667</v>
       </c>
       <c r="I74" s="1">
-        <v>42954.555717592593</v>
+        <v>42954.55572916667</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -5101,7 +5082,7 @@
         <v>4</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q74">
         <v>24.852716300000001</v>
@@ -5113,9 +5094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -5136,10 +5117,10 @@
         <v>1</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -5163,9 +5144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -5186,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q76">
         <v>24.852716300000001</v>
@@ -5213,9 +5194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -5239,19 +5220,19 @@
         <v>4</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q77">
         <v>24.852716300000001</v>
@@ -5263,9 +5244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -5286,16 +5267,16 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78">
         <v>4</v>
@@ -5313,9 +5294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -5336,22 +5317,22 @@
         <v>1</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>1</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>4</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q79">
         <v>24.852716300000001</v>
@@ -5363,9 +5344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -5389,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -5401,7 +5382,7 @@
         <v>4</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q80">
         <v>24.852716300000001</v>
@@ -5413,9 +5394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -5442,16 +5423,16 @@
         <v>4</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81">
         <v>4</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q81">
         <v>24.852716300000001</v>
@@ -5463,9 +5444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -5486,22 +5467,22 @@
         <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82">
         <v>4</v>
       </c>
       <c r="P82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q82">
         <v>24.852716300000001</v>
@@ -5513,9 +5494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -5536,10 +5517,10 @@
         <v>1</v>
       </c>
       <c r="K83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <v>2</v>
@@ -5551,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>24.852716300000001</v>
@@ -5563,9 +5544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -5586,22 +5567,22 @@
         <v>1</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>2</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <v>24.852716300000001</v>
@@ -5613,9 +5594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -5630,7 +5611,7 @@
         <v>42954.55572916667</v>
       </c>
       <c r="I85" s="1">
-        <v>42954.55572916667</v>
+        <v>42954.55574074074</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -5639,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85">
         <v>2</v>
@@ -5651,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q85">
         <v>24.852716300000001</v>
@@ -5663,9 +5644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -5677,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="1">
-        <v>42954.55572916667</v>
+        <v>42954.55574074074</v>
       </c>
       <c r="I86" s="1">
         <v>42954.55574074074</v>
@@ -5686,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -5695,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O86">
         <v>4</v>
@@ -5713,9 +5694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -5739,19 +5720,19 @@
         <v>1</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O87">
         <v>4</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q87">
         <v>24.852716300000001</v>
@@ -5763,9 +5744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -5789,13 +5770,13 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88">
         <v>4</v>
@@ -5813,9 +5794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -5836,19 +5817,19 @@
         <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P89">
         <v>4</v>
@@ -5863,9 +5844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -5886,19 +5867,19 @@
         <v>1</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P90">
         <v>4</v>
@@ -5913,9 +5894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -5939,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>2</v>
@@ -5951,7 +5932,7 @@
         <v>4</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>24.852716300000001</v>
@@ -5963,9 +5944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -5986,22 +5967,22 @@
         <v>1</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M92">
         <v>1</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O92">
         <v>4</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>24.852716300000001</v>
@@ -6013,9 +5994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -6036,22 +6017,22 @@
         <v>1</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O93">
         <v>4</v>
       </c>
       <c r="P93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q93">
         <v>24.852716300000001</v>
@@ -6063,9 +6044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -6086,19 +6067,19 @@
         <v>1</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>4</v>
@@ -6113,9 +6094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -6136,19 +6117,19 @@
         <v>1</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M95">
         <v>2</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P95">
         <v>4</v>
@@ -6163,9 +6144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -6186,16 +6167,16 @@
         <v>1</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O96">
         <v>4</v>
@@ -6213,9 +6194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -6230,16 +6211,16 @@
         <v>42954.55574074074</v>
       </c>
       <c r="I97" s="1">
-        <v>42954.55574074074</v>
+        <v>42954.555752314816</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -6251,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="P97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q97">
         <v>24.852716300000001</v>
@@ -6263,9 +6244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -6277,7 +6258,7 @@
         <v>2</v>
       </c>
       <c r="H98" s="1">
-        <v>42954.55574074074</v>
+        <v>42954.555752314816</v>
       </c>
       <c r="I98" s="1">
         <v>42954.555752314816</v>
@@ -6292,16 +6273,16 @@
         <v>3</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98">
         <v>4</v>
       </c>
       <c r="P98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q98">
         <v>24.852716300000001</v>
@@ -6313,9 +6294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -6336,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L99">
         <v>3</v>
@@ -6345,13 +6326,13 @@
         <v>2</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q99">
         <v>24.852716300000001</v>
@@ -6363,9 +6344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -6386,10 +6367,10 @@
         <v>1</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M100">
         <v>2</v>
@@ -6398,10 +6379,10 @@
         <v>2</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q100">
         <v>24.852716300000001</v>
@@ -6413,9 +6394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -6439,16 +6420,16 @@
         <v>2</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N101">
         <v>2</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P101">
         <v>4</v>
@@ -6463,9 +6444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -6486,22 +6467,22 @@
         <v>1</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <v>2</v>
       </c>
       <c r="O102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q102">
         <v>24.852716300000001</v>
@@ -6513,9 +6494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -6536,13 +6517,13 @@
         <v>1</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L103">
         <v>3</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103">
         <v>2</v>
@@ -6563,9 +6544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -6589,19 +6570,19 @@
         <v>2</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O104">
         <v>4</v>
       </c>
       <c r="P104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q104">
         <v>24.852716300000001</v>
@@ -6613,9 +6594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
@@ -6636,13 +6617,13 @@
         <v>1</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -6663,9 +6644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -6695,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O106">
         <v>4</v>
@@ -6713,9 +6694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -6739,19 +6720,19 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M107">
         <v>2</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q107">
         <v>24.852716300000001</v>
@@ -6763,9 +6744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -6792,16 +6773,16 @@
         <v>2</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <v>3</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q108">
         <v>24.852716300000001</v>
@@ -6813,9 +6794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -6827,31 +6808,31 @@
         <v>2</v>
       </c>
       <c r="H109" s="1">
-        <v>42954.555752314816</v>
+        <v>42954.555763888886</v>
       </c>
       <c r="I109" s="1">
-        <v>42954.555752314816</v>
+        <v>42954.555763888886</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L109">
         <v>2</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q109">
         <v>24.852716300000001</v>
@@ -6863,9 +6844,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -6886,22 +6867,22 @@
         <v>1</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L110">
         <v>2</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q110">
         <v>24.852716300000001</v>
@@ -6913,9 +6894,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
@@ -6936,22 +6917,22 @@
         <v>1</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O111">
         <v>4</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q111">
         <v>24.852716300000001</v>
@@ -6963,9 +6944,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -6986,19 +6967,19 @@
         <v>1</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M112">
         <v>2</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P112">
         <v>4</v>
@@ -7013,9 +6994,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -7036,22 +7017,22 @@
         <v>1</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M113">
         <v>2</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q113">
         <v>24.852716300000001</v>
@@ -7063,9 +7044,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -7086,22 +7067,22 @@
         <v>1</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O114">
         <v>4</v>
       </c>
       <c r="P114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q114">
         <v>24.852716300000001</v>
@@ -7113,9 +7094,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -7136,22 +7117,22 @@
         <v>1</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q115">
         <v>24.852716300000001</v>
@@ -7163,9 +7144,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -7186,13 +7167,13 @@
         <v>1</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>4</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N116">
         <v>2</v>
@@ -7213,9 +7194,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -7236,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L117">
         <v>4</v>
@@ -7245,13 +7226,13 @@
         <v>2</v>
       </c>
       <c r="N117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q117">
         <v>24.852716300000001</v>
@@ -7263,9 +7244,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -7286,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="K118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118">
         <v>4</v>
@@ -7298,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q118">
         <v>24.852716300000001</v>
@@ -7313,9 +7294,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -7336,22 +7317,22 @@
         <v>1</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O119">
         <v>4</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q119">
         <v>24.852716300000001</v>
@@ -7363,9 +7344,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -7377,31 +7358,31 @@
         <v>2</v>
       </c>
       <c r="H120" s="1">
-        <v>42954.555763888886</v>
+        <v>42954.555775462963</v>
       </c>
       <c r="I120" s="1">
-        <v>42954.555763888886</v>
+        <v>42954.555775462963</v>
       </c>
       <c r="J120">
         <v>1</v>
       </c>
       <c r="K120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O120">
         <v>4</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q120">
         <v>24.852716300000001</v>
@@ -7413,9 +7394,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -7436,22 +7417,22 @@
         <v>1</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M121">
         <v>2</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q121">
         <v>24.852716300000001</v>
@@ -7463,9 +7444,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
@@ -7486,22 +7467,22 @@
         <v>1</v>
       </c>
       <c r="K122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>4</v>
       </c>
       <c r="M122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O122">
         <v>2</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q122">
         <v>24.852716300000001</v>
@@ -7513,9 +7494,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -7536,10 +7517,10 @@
         <v>1</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M123">
         <v>1</v>
@@ -7548,10 +7529,10 @@
         <v>1</v>
       </c>
       <c r="O123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q123">
         <v>24.852716300000001</v>
@@ -7563,9 +7544,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
@@ -7586,22 +7567,22 @@
         <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O124">
         <v>4</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q124">
         <v>24.852716300000001</v>
@@ -7613,9 +7594,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -7636,16 +7617,16 @@
         <v>1</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O125">
         <v>4</v>
@@ -7663,9 +7644,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -7686,16 +7667,16 @@
         <v>1</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O126">
         <v>4</v>
@@ -7713,9 +7694,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -7736,22 +7717,22 @@
         <v>1</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L127">
         <v>4</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q127">
         <v>24.852716300000001</v>
@@ -7763,9 +7744,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -7786,22 +7767,22 @@
         <v>1</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N128">
         <v>1</v>
       </c>
       <c r="O128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q128">
         <v>24.852716300000001</v>
@@ -7813,9 +7794,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
@@ -7836,22 +7817,22 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L129">
         <v>3</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q129">
         <v>24.852716300000001</v>
@@ -7860,80 +7841,125 @@
         <v>-64.353305700000007</v>
       </c>
       <c r="S129">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>148</v>
-      </c>
-      <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130">
-        <v>2</v>
-      </c>
-      <c r="H130" s="1">
-        <v>42954.555775462963</v>
-      </c>
-      <c r="I130" s="1">
-        <v>42954.555775462963</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="K130">
-        <v>4</v>
-      </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>2</v>
-      </c>
-      <c r="O130">
-        <v>4</v>
-      </c>
-      <c r="P130">
-        <v>2</v>
-      </c>
-      <c r="Q130">
-        <v>24.852716300000001</v>
-      </c>
-      <c r="R130">
-        <v>-64.353305700000007</v>
-      </c>
-      <c r="S130">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>RIGHT(B2,LEN(B2)-FIND("-",B2))</f>
+        <v>Reservation Process</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C7" si="0">RIGHT(B3,LEN(B3)-FIND("-",B3))</f>
+        <v>Waiting Time</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Reception</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Server</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Food</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cleanliness</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7943,15 +7969,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7965,7 +7991,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7979,7 +8005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7993,7 +8019,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -8007,7 +8033,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -8021,7 +8047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -8035,7 +8061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -8049,7 +8075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -8063,7 +8089,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -8077,7 +8103,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8091,7 +8117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -8105,7 +8131,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -8119,7 +8145,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -8133,7 +8159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -8147,7 +8173,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -8161,7 +8187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +8201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -8189,7 +8215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -8203,7 +8229,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -8217,7 +8243,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8231,7 +8257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8245,7 +8271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8259,7 +8285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8273,7 +8299,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8287,7 +8313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8301,7 +8327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -8315,7 +8341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -8329,7 +8355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -8343,7 +8369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -8357,7 +8383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -8371,7 +8397,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -8385,7 +8411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -8399,7 +8425,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -8413,7 +8439,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8453,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -8441,7 +8467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -8455,7 +8481,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -8469,7 +8495,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -8483,7 +8509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -8497,7 +8523,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -8511,7 +8537,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -8525,7 +8551,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -8539,7 +8565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -8553,7 +8579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -8567,7 +8593,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -8581,7 +8607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -8595,7 +8621,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -8609,7 +8635,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -8623,7 +8649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -8637,7 +8663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -8651,7 +8677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -8665,7 +8691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -8679,7 +8705,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -8693,7 +8719,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -8707,7 +8733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -8721,7 +8747,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -8735,7 +8761,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -8749,7 +8775,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8763,7 +8789,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -8777,7 +8803,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -8791,7 +8817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -8805,7 +8831,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -8819,7 +8845,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -8833,7 +8859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -8847,7 +8873,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -8861,7 +8887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -8875,7 +8901,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -8889,7 +8915,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -8903,7 +8929,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -8917,7 +8943,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -8931,7 +8957,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -8945,7 +8971,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -8959,7 +8985,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -8973,7 +8999,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -8987,7 +9013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -9001,7 +9027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -9015,7 +9041,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -9029,7 +9055,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -9043,7 +9069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -9057,7 +9083,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -9071,7 +9097,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -9085,7 +9111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9099,7 +9125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -9113,7 +9139,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -9127,7 +9153,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -9141,7 +9167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -9155,7 +9181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -9169,7 +9195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -9183,7 +9209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -9197,7 +9223,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -9211,7 +9237,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -9225,7 +9251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -9239,7 +9265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -9253,7 +9279,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -9267,7 +9293,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -9281,7 +9307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -9295,7 +9321,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -9309,7 +9335,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -9323,7 +9349,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -9337,7 +9363,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -9351,7 +9377,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -9365,7 +9391,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -9379,7 +9405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -9393,7 +9419,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -9407,7 +9433,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -9421,7 +9447,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -9435,7 +9461,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -9449,7 +9475,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -9463,7 +9489,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -9477,7 +9503,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -9491,7 +9517,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -9505,7 +9531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -9519,7 +9545,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -9533,7 +9559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -9547,7 +9573,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -9561,7 +9587,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -9575,7 +9601,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -9589,7 +9615,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -9603,7 +9629,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -9617,7 +9643,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -9631,7 +9657,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -9645,7 +9671,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -9659,7 +9685,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -9673,7 +9699,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -9687,7 +9713,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -9701,7 +9727,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -9715,7 +9741,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -9729,7 +9755,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -9743,7 +9769,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -9759,5 +9785,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>